--- a/SURG_10input.xlsx
+++ b/SURG_10input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\122156\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\122156\Documents\GitHub\weekly_medical_records_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFFF464-1486-48E9-9E13-3C3F34FA0882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694D9C7-202C-4148-AE59-9B0BF8C10FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AT$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -5090,6 +5090,441 @@
   <si>
     <t>After admission on 05/08, the patient had been in stable condition. Scheduled left common carotid artery stent grafting was performed on 05/09 without complication. The patient was transferred to ICU after the operation on the same day and extubation was performed later on 05/09. The patient was transferred back to the general ward on 05/10. However, a hypotensive event with fever up to 38.8'C was noted on 05/11, and Levophed and empirical Tazocin were administered. Due to poor oral intake and hypovolemic status, PPN was given for nutritional support. By 05/12, the patient's blood pressure and body temperature had stabilized, and Levophed was tapered off, but an increase in left neck wound bleeding was observed.</t>
   </si>
+  <si>
+    <t>DEPT_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>OPNOTEVALUETEXT_x</t>
+  </si>
+  <si>
+    <t>progress_history</t>
+  </si>
+  <si>
+    <t>onservice_history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offservice_history</t>
+  </si>
+  <si>
+    <t>SURG: 1. Tubular adenoma with focal moderate dysplasia, transverse colon 
+2. Tubular adenoma, with mild degree of nuclear atypism at descending colon, and minimal degree of nuclear atypism at ascending colon 
+3. Prostate adenocarcinoma status post radiotherapy and androgen deprivation therapy since 2019.4.1 
+4. Hypothyroidism under eltroxin supplement
+5. Hypertension
+6. Diabetes mellitus
+7. Dyslipidemia
+8. Hyperuricemia</t>
+  </si>
+  <si>
+    <t>last_week_diagnosis</t>
+  </si>
+  <si>
+    <t>MED: [Active]
+#. COVID-19 infection, D0=2022/6/19, CT value=11.62, status post Remdesivir 6/19-
+#. Traumatic brain injury, with subdural hemorrhage in right frontal-temporal region on 2022/5, Rancho Los Amigos Scale VII, with dysphagia and four limb weakness 
+[Inactive]
+#. Left foot cellulitis, status post Unasyn(2022/5/24-5/30) and Tazocin(5/30-6/13), resolved
+[Underlying]
+#. Left knee and ankle gouty arthritis
+#. Dementia, without behavioral disturbance 
+#. Chronic kidney disease, stage 3, SURG: 1. Cerebellar hemorrhage 
+2. Dementia
+3. Chronic kidney disease, PMR: # Traumatic brain injury, with subdural hemorrhage in right frontal-temporal region, Rancho Los Amigos Scale VII, with dysphagia and four limb weakness 
+# Left foot cellulitis, status post Unasyn(2022/5/24-5/30) and Tazocin(5/30-6/13), resolved
+# Left knee and ankle gouty arthritis
+# Dementia, without behavioral disturbance 
+# Chronic kidney disease, stage 3, PMR: [Active]
+1. Traumatic brain injury, with cerebellar hemorrhage and focal subarachnoid hemorrhage (SAH) and intraventricular hemorrhage (IVH), Rancho Los Amigos Scale VI~VII, with ataxia, mild four limb weakness and dysphagia
+[Inactive]
+1. COVID-19 infection, D0=2022/6/19 (Ct value=11.62), status post Remdesivir 2022/6/19-6/21, de-isolated on 2022/7/1 (Ct value=33.21 on 2022/6/30) 
+2. Left foot cellulitis, status post Unasyn (2022/5/24-5/30) and Tazocin (5/30-6/13), resolved
+[Underlying]
+1. Dementia without behavioral disturbance 
+2. Chronic kidney disease, stage 3
+3. Left knee and ankle gouty arthritis
+4. Benign prostate hyperplasia, status post transurethral resection of the prostate in 2013/8
+5. Duodenal ulcer scar, anterior wall of bulb
+6. History of reflux esophagitis (Los Angeles grade A)
+7. History of internal hemorrhoid</t>
+  </si>
+  <si>
+    <t>SURG: . Acute decompensated heart failure
+. Suspected community-acquired pneumonia
+. Hypoglycemia, undetermined cause
+[Underlying]
+. Dilated cardiomyopathy, s/p heart transplantation on 2004/2/13, s/p EMB on 2019/12/13, 2020/12/18
+. Coronary artery disease, 2-vessel, suspect cardiac allograft vasculopathy related, s/p PCI with stenting to LCX on 2019/04/18, w/o ISR on 2019/12/13, 2020/12/18
+. Sick sinus syndrome, s/p Biotronik, MRI compatible DDD PPM implantation on 2019/12/24, s/p lead revision on 2019/12/25, 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension</t>
+  </si>
+  <si>
+    <t>[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension
+[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension
+[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension
+[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension
+[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension
+[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-3/24)
+#. Normocytic anemia suspected chronic inflammation related
+#. Acute decompensated heart failure improved
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension</t>
+  </si>
+  <si>
+    <t>SURG: . Bilateral lower extremities infection, suspect necrotizing fasciitis, status post Debridement + regional fasciotomy on 2023/6/28</t>
+  </si>
+  <si>
+    <t>Bilateral lower extremities infection, suspect necrotizing fasciitis</t>
+  </si>
+  <si>
+    <t>. Bilateral lower extremities infection suspect necrotizing fasciitis status post Debridement + regional fasciotomy on 2023/6/28
+. Bilateral lower extremities infection suspect necrotizing fasciitis status post Debridement + regional fasciotomy on 2023/6/28</t>
+  </si>
+  <si>
+    <t>[Diagnoses]
+#. Clostridium difficile associated diarrhea status post Vancomycin(3/15-)
+#. Acute decompensated heart failure
+#. Hypoglycemia suspect clopidogrel induced autoimmune syndrome
+#. Hyperbilirubinemia with dilated hepatic cysts and IVC suspected nutmeg liver
+#. Coronary artery disease 2-vessel suspect cardiac allograft vasculopathy related s/p PCI with stenting to LCX on 2019/04/18 w/o ISR on 2019/12/13 2020/12/18 2022/02/22
+#. Bilateral multiple embolic infarction with hemorrhagic transformation causing diffuse ICH and SAH ICH score 2 suspected Afib related D1 might be 2/25
+[Underlying]
+. Dilated cardiomyopathy s/p heart transplantation on 2004/2/13 s/p EMB on 2019/12/13 2020/12/18 2022/02/22
+. Sick sinus syndrome s/p Biotronik MRI compatible DDD PPM implantation on 2019/12/24 s/p lead revision on 2019/12/25 2019/12/28
+. Dyslipidemia
+. Diabetes mellitus
+. Hypertension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SURG: [Underlying disease]
+1. Oral cavity cancer, left oral tongue, squamous cell carcinoma and variants adenosquamous carcinoma, 
+- status post partial glossectomy, left + modified radical neck dissection, type II (2019/10/02), pT2N3b (7/52 extranodal extension) M0, lymphovascular invasion(+), perineural invasion(+), margin(-), stage IVB, 
+- status post cisplatin(VI) based concurrent chemoradiotherapy (66Gy/33 fractions, 2019/11/11-2019/12/25), with recurrence in left supraclavicular fossa lesion (PD-L1 22C3 tumor proportion score: 19%, 28-8 expression in tumor cells: &lt;1%), 
+- status post clinical trial protocol therapy with MK7684A (VI, 2022/06/29-2022/11/15), with disease in progression, 
+- status post chemotherapy with EPF protocol(IV, 2023/01/03- 2023/04/17, omit Erbitux at cycle IV)
+- Recurrent tumor with left common carotid artery encasement noted in 2023/03
+2. Hypothyroidism, suspected MK7486A related, under Eltroxin control, incompliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Oral cavity cancer, left oral tongue, squamous cell carcinoma and variants adenosquamous carcinoma, with recurrent tumor with left common carotid artery encasement noted in 2023/03 </t>
+  </si>
+  <si>
+    <t>SURG: [Active]
+. Ileus, suspicious tumor recurrence over anastomosis site, s/p loop ileostomy on 2022/5/14
+. Left atrophic kidney with hydronephrosis, status post DBJ insertion in 2021/7, removed
+. Hypokalemia
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis, cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12, pT4aN1bM1a, stage IVA, MSS, BRAF wt, KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04, progressive liver metastasis, CT on 2019/09/27, proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2, hold C11 for liver nodules RFA ＆ op) since 2019/11/13, with liver metastases at S1, S4, S5
+- s/p S1 segmentectomy, S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09, with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05, with new 6mm nodule over S8, suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1</t>
+  </si>
+  <si>
+    <t>Obstructive ileus, Suspected recurrence at anastomosis with total obstruction 
+Colon cancer stage 4, s/p LAR, s/p hepatectomy, s/p HIPEC, s/p chemotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[Active]
+. Ileus suspicious tumor recurrence over anastomosis site s/p loop ileostomy on 2022/5/14
+. Left atrophic kidney with hydronephrosis status post DBJ insertion in 2021/7 removed
+. Hypokalemia resolved
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12 pT4aN1bM1a stage IVA MSS BRAF wt KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04 progressive liver metastasis CT on 2019/09/27 proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2 hold C11 for liver nodules RFA ＆ op) since 2019/11/13 with liver metastases at S1 S4 S5
+- s/p S1 segmentectomy S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09 with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05 with new 6mm nodule over S8 suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5 courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1
+- s/p FOLFIRI + Avastin on 2021/5/27 then FOLFIRI on 2021/06/16
+- s/p S5/6 segementectomy + CRS+ HIPEC on 2021/07/12 - from medical record dated back to 2021/10/20 last chemotherapy finished in 2022/4
+[Active]
+. Ileus suspicious tumor recurrence over anastomosis site s/p loop ileostomy on 2022/5/14 under Tazocin(D8) + Metronidazole(D2)
+. Left atrophic kidney with hydronephrosis status post DBJ insertion in 2021/7 removed
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12 pT4aN1bM1a stage IVA MSS BRAF wt KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04 progressive liver metastasis CT on 2019/09/27 proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2 hold C11 for liver nodules RFA ＆ op) since 2019/11/13 with liver metastases at S1 S4 S5
+- s/p S1 segmentectomy S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09 with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05 with new 6mm nodule over S8 suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5 courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1
+- s/p FOLFIRI + Avastin on 2021/5/27 then FOLFIRI on 2021/06/16
+- s/p S5/6 segementectomy + CRS+ HIPEC on 2021/07/12 - from medical record dated back to 2021/10/20 last chemotherapy finished in 2022/4
+[Active]
+. Ileus suspicious tumor recurrence over anastomosis site s/p loop ileostomy on 2022/5/14 under Invanz(D1) + Metronidazole(D3)
+. Left atrophic kidney with hydronephrosis status post DBJ insertion in 2021/7 removed
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12 pT4aN1bM1a stage IVA MSS BRAF wt KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04 progressive liver metastasis CT on 2019/09/27 proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2 hold C11 for liver nodules RFA ＆ op) since 2019/11/13 with liver metastases at S1 S4 S5
+- s/p S1 segmentectomy S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09 with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05 with new 6mm nodule over S8 suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5 courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1
+- s/p FOLFIRI + Avastin on 2021/5/27 then FOLFIRI on 2021/06/16
+- s/p S5/6 segementectomy + CRS+ HIPEC on 2021/07/12 - from medical record dated back to 2021/10/20 last chemotherapy finished in 2022/4
+[Active]
+. Ileus suspicious tumor recurrence over anastomosis site s/p loop ileostomy on 2022/5/14 under Invanz(D2) + Metronidazole(D3)
+. Left atrophic kidney with hydronephrosis status post DBJ insertion in 2021/7 removed
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12 pT4aN1bM1a stage IVA MSS BRAF wt KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04 progressive liver metastasis CT on 2019/09/27 proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2 hold C11 for liver nodules RFA ＆ op) since 2019/11/13 with liver metastases at S1 S4 S5
+- s/p S1 segmentectomy S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09 with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05 with new 6mm nodule over S8 suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5 courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1
+- s/p FOLFIRI + Avastin on 2021/5/27 then FOLFIRI on 2021/06/16
+- s/p S5/6 segementectomy + CRS+ HIPEC on 2021/07/12 - from medical record dated back to 2021/10/20 last chemotherapy finished in 2022/4</t>
+  </si>
+  <si>
+    <t>[Active]
+. Ileus suspicious tumor recurrence over anastomosis site s/p loop ileostomy on 2022/5/14
+. Left atrophic kidney with hydronephrosis status post DBJ insertion in 2021/7 removed
+. Hypokalemia K 2.5 on 5/18
+[Underlying]
+. Sigmoid colon adenocarcinoma with liver metastasis cT3N2M1
+ - s/p laparoscopic S2/3 segmentectomy + S4a/S6 subsegmentectomy + anterior resection on 2018/12/12 pT4aN1bM1a stage IVA MSS BRAF wt KRAS mt (codon 12) - s/p Port-A implantation over left cephalic vein with failure on 2018/12/19
+- s/p Port-A implantation at right internal jugular vein on 2018/12/26 - s/p adjuvant FOLFOX x 12 during 2019/01/05 and 2019/08/04 progressive liver metastasis CT on 2019/09/27 proof by MRI on 2019/11/02
+- s/p FOLFIRI x11 + Avastin x9 (start since C2 hold C11 for liver nodules RFA ＆ op) since 2019/11/13 with liver metastases at S1 S4 S5
+- s/p S1 segmentectomy S6 and S5 subsegmentectomy and micro-wave ablation of S9 tumor on 2020/05/04
+- s/p FOLFIRI x3 since 2020/05/28 new liver metastasis at S6
+- s/p RFA on 2020/07/09 with newly found suspected metastatic lesion over S5 of liver
+- s/p RFA on 2020/09/15
+- s/p FOLFIRI + Avastin x 7 (hold Avastin on C3 and C4) from 2020/07/20 to 2020/11/05 with new 6mm nodule over S8 suspect metastasis or inflammation (CT-Abdomen 11/20)
+- s/p FOLFIRI + Avastin on 2020/11/23
+- s/p FOLFIRI on 2020/12/12 and 2021/01/05 (hold Avastin for RFA)
+- s/p CT guided RFA on 2020/12/22
+- s/p FOLFIRI on 2021/01/05
+- s/p 5 courses of FOLFIRI + Avastin since 2021/01/24 to 2021/4/1
+- s/p FOLFIRI + Avastin on 2021/5/27 then FOLFIRI on 2021/06/16
+- s/p S5/6 segementectomy + CRS+ HIPEC on 2021/07/12 - from medical record dated back to 2021/10/20 last chemotherapy finished in 2022/4</t>
+  </si>
+  <si>
+    <t>SURG: Traumatic injury, vehicle accident related with
+ - Right frontotemporal SDH
+ - Bilateral fronto-parietal scalp hematoma with bi-frontal to right temporal skull fracture
+ - Right upper lobe contussion
+ - Left 1st and right 2nd rib fracture
+ - Bilateral L5 pars interarticularis fracture</t>
+  </si>
+  <si>
+    <t>1.Traumatic brain injury with skull fracture and epidural hemorrhage s/p right frontotemporal craniotomy for epidural hematoma removal cranial fixation. 
+2.Left 1st and right 2nd rib fracture with Right upper lobe contusion
+3.Bilateral L5 pars interarticularis fracture
+1.Traumatic brain injury with skull fracture and epidural hemorrhage s/p right frontotemporal craniotomy for epidural hematoma removal cranial fixation. 
+2.Left 1st and right 2nd rib fracture with Right upper lobe contusion
+3.Bilateral L5 pars interarticularis fracture
+1.Traumatic brain injury with skull fracture and epidural hemorrhage s/p right frontotemporal craniotomy for epidural hematoma removal and cranial fixation. 
+2.Left 1st and right 2nd rib fracture with Right upper lobe contusion
+3.Bilateral L5 pars interarticularis spondylolysis</t>
+  </si>
+  <si>
+    <t>1.Traumatic brain injury with skull fracture and epidural hemorrhage s/p right frontotemporal craniotomy for epidural hematoma removal cranial fixation. 
+2.Left 1st and right 2nd rib fracture with Right upper lobe contusion
+3.Bilateral L5 pars interarticularis fracture</t>
+  </si>
+  <si>
+    <t>Traumatic injury vehicle accident related with
+ - Right frontotemporal SDH s/p right frontotemporal craniotomy for epidural hematoma removal and intraparenchymal ICP monitoring over right frontal lobe on 2021/07/28
+ - Bilateral fronto-parietal scalp hematoma with bi-frontal to right temporal skull fracture
+ - Right upper lobe contusion
+ - Left 1st and right 2nd rib fracture
+ - Bilateral L5 pars interarticularis fracture</t>
+  </si>
+  <si>
+    <t>SURG: [Active]
+# AKI, KDIGO stage 3, suspect prerenal cause or hepatorenal syndrome related
+# Hyperkalemia, resolved
+# Hyponatremia
+[Underlying]
+# Obstructive jaundice, suspect CBD stone or tumor invasion related
+- status post PTCD insertion on 2022/12/26
+- status post biliary stenting on 2022/01/09
+- status post PTCD revision on 2023/01/11, 02/08, and 03/26
+# CRKP Bacteremia (2022/12/25 blood culture), under Mepem 2022/12/27-2023/1/16
+# ESBL kp bacteremia (2023/1/20 blood culture), under Mepem 2022/1/20-2023/1/29, under Cefixime 2023/1/30-02/18
+#. Hepatocellular carcinoma, status post RFA on 2015/08/04 and TACE on 2015/12/10, suspect recurrence
+# Liver cirrhosis, Child-pugh class A
+# Chronic hepatitis C, status post IFN, but failed
+# Right distal radius fracture, status post ORIF on 2022/11/03
+# Valvular heart disease, moderate mitral regurgitation and moderate to severe tricuspid regurgitation, status post Thoracoscope-assisted TVP(ring annuloplasty) and RA reduction in 2022/07
+# Atrial fibrillation, CHA？DS？-VASc Score 4, under Xarelto 
+# Heart failure, NYHA class II</t>
+  </si>
+  <si>
+    <t>[Active]
+# Hypovolemic shock under Levophed since 5/18-
+# AKI KDIGO stage 3 suspect prerenal cause or hepatorenal syndrome related under Glypressin 2023/05/17-5/26
+# Hyperkalemia and hyponatremia resolved
+[Underlying]
+# Obstructive jaundice suspect CBD stone or tumor invasion related
+- status post PTCD insertion on 2022/12/26
+- status post biliary stenting on 2022/01/09
+- status post PTCD revision on 2023/01/11 02/08 and 03/26
+# CRKP Bacteremia (2022/12/25 blood culture) under Mepem 2022/12/27-2023/1/16
+# ESBL kp bacteremia (2023/1/20 blood culture) under Mepem 2022/1/20-2023/1/29 under Cefixime 2023/1/30-02/18
+#. Hepatocellular carcinoma  status post RFA on 2015/08/04 and TACE on 2015/12/10 suspect recurrence
+# Liver cirrhosis Child-pugh class A
+# Chronic hepatitis C status post IFN but failed
+# Right distal radius fracture status post ORIF on 2022/11/03
+# Valvular heart disease moderate mitral regurgitation and moderate to severe tricuspid regurgitation status post Thoracoscope-assisted TVP(ring annuloplasty) and RA reduction in 2022/07
+# Atrial fibrillation CHA2DS2-VASc Score 4 under Xarelto (hold since OPD on 5/15)
+# Heart failure NYHA class II
+[Active]
+# Hypovolemic shock under Levophed since 5/18-
+# AKI KDIGO stage 3 suspect prerenal cause or hepatorenal syndrome related under Glypressin 2023/05/17-5/26
+# Hyperkalemia and hyponatremia resolved
+[Underlying]
+# Obstructive jaundice suspect CBD stone or tumor invasion related
+- status post PTCD insertion on 2022/12/26
+- status post biliary stenting on 2022/01/09
+- status post PTCD revision on 2023/01/11 02/08 and 03/26
+# CRKP Bacteremia (2022/12/25 blood culture) under Mepem 2022/12/27-2023/1/16
+# ESBL kp bacteremia (2023/1/20 blood culture) under Mepem 2022/1/20-2023/1/29 under Cefixime 2023/1/30-02/18
+#. Hepatocellular carcinoma  status post RFA on 2015/08/04 and TACE on 2015/12/10 suspect recurrence
+# Liver cirrhosis Child-pugh class A
+# Chronic hepatitis C status post IFN but failed
+# Right distal radius fracture status post ORIF on 2022/11/03
+# Valvular heart disease moderate mitral regurgitation and moderate to severe tricuspid regurgitation status post Thoracoscope-assisted TVP(ring annuloplasty) and RA reduction in 2022/07
+# Atrial fibrillation CHA2DS2-VASc Score 4 under Xarelto (hold since OPD on 5/15)
+# Heart failure NYHA class II</t>
+  </si>
+  <si>
+    <t>SURG: 1. Pulmonary hypertension(2019/05/30 tricuspid regurgitation pressure gradient = 71 mmHg) and suspect right heart failure, s/p PTA to MPA on 2019/9/12
+2. Ventricular septal defect, status post operation and pulmonary artery banding after birth with residual pulmonary stenosis s/p balloon valvuloplasty</t>
+  </si>
+  <si>
+    <t>VSD, s/p correction, with severe TR, PR, s/p TVR(T) + PVR(T) on 2021/11/25</t>
+  </si>
+  <si>
+    <t>PMR: #. Left frontal lobe Anaplastic astrocytoma, WHO grade III, status post grossly total tumor excision on 2010/12/03
+- suspected recurrent new heterogeneous enhancing nodule in left high posterior frontal lobe with perifocal edema (11/07 MRI+c), status post Left frontal craniotomy for tumor resection, fluorescein-assisted on 2023/11/11
+#. Seizure, with lamotrigine and keppra
+[Underlying]
+#. Myoma, stable, noted for 4 years, SURG: 1. Anaplastic astrocytoma, WHO grade III, left frontal lobe, status post grossly total tumor excision on 2010/12/03
+ 2. Seizure, with lamotrigine
+ 3. Myoma, stable, noted for 4 years</t>
+  </si>
+  <si>
+    <t>Left frontal anaplastic astrocytoma, s/p left frontal craniotomy for gross total resection in 2010, with left frontal lesion suspect for recurrent tumor or radiation necrosis</t>
+  </si>
 </sst>
 </file>
 
@@ -5156,20 +5591,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5472,28 +5911,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="14" width="19.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="9.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="5"/>
+    <col min="26" max="26" width="43.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="41" width="9.140625" style="5"/>
+    <col min="42" max="42" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9.140625" style="5"/>
+    <col min="45" max="45" width="15.7109375" style="5" customWidth="1"/>
+    <col min="46" max="46" width="27.140625" style="5" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5516,910 +5965,1039 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:46" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>44645.472222222219</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="6">
+      <c r="T2" s="7">
         <v>44645</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="V2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="6">
+      <c r="Z2" s="7">
         <v>44639.031944444447</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AN2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4" t="s">
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AR2" s="7">
         <v>44620</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AS2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.13471502590673501</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.09424083769633E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7.2538860103626895E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
         <v>44421.603472222218</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>133</v>
       </c>
       <c r="H3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L3" t="s">
+      <c r="S3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="2">
+      <c r="T3" s="8">
         <v>44421</v>
       </c>
-      <c r="O3" t="s">
+      <c r="V3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="P3" t="s">
+      <c r="W3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="X3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Y3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="2">
+      <c r="Z3" s="8">
         <v>44418.634722222218</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AA3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AB3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AC3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AD3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AF3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AG3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AI3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AL3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AM3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AN3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AR3" s="8">
         <v>44406</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AS3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AT3" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.13541666666666599</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.1052631578947299E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>7.2916666666666602E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>44292.433333333327</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="2">
+      <c r="T4" s="8">
         <v>44292</v>
       </c>
-      <c r="O4" t="s">
+      <c r="V4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Y4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="2">
+      <c r="Z4" s="8">
         <v>44291.573611111111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AM4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AN4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AR4" s="8">
         <v>44279</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AS4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AT4" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.43846153846153801</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.108527131782945</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.20769230769230701</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="8">
         <v>44708.660416666673</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I5" t="s">
+      <c r="P5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s">
+      <c r="S5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="2">
+      <c r="T5" s="8">
         <v>44708</v>
       </c>
-      <c r="N5" t="s">
+      <c r="U5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O5" t="s">
+      <c r="V5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="X5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="2">
+      <c r="Z5" s="8">
         <v>44702.491666666669</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AP5" s="8">
         <v>44695</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AR5" s="8">
         <v>44698</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AT5" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.35384615384615298</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>7.7519379844961198E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.20769230769230701</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>45065.411805555559</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="P6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K6" t="s">
+      <c r="R6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L6" t="s">
+      <c r="S6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M6" s="2">
+      <c r="T6" s="8">
         <v>45065</v>
       </c>
-      <c r="O6" t="s">
+      <c r="V6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="P6" t="s">
+      <c r="W6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="X6" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="S6" s="2">
+      <c r="Z6" s="8">
         <v>45064.420138888891</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AM6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AN6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AR6" s="8">
         <v>45064</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AS6" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AT6" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.37662337662337603</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>7.8947368421052599E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.207792207792207</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="8">
         <v>45107.365277777782</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7"/>
+      <c r="P7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K7" t="s">
+      <c r="R7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L7" t="s">
+      <c r="S7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="2">
+      <c r="T7" s="8">
         <v>45107</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O7" t="s">
+      <c r="V7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="X7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="2">
+      <c r="Z7" s="8">
         <v>45105.679861111108</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AA7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AB7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AD7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AF7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AG7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AH7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AI7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AL7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AM7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AO7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AP7" s="8">
         <v>45104</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AS7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AT7" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.50896057347670198</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.129963898916967</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.207885304659498</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <v>44715.551388888889</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Q8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K8" t="s">
+      <c r="R8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
+      <c r="S8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="2">
+      <c r="T8" s="8">
         <v>44715</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AM8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AN8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AR8" s="8">
         <v>44694</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AS8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AT8" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.72025723472668801</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.58252427184466005</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.70096463022508004</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <v>45247.447916666657</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="P9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K9" t="s">
+      <c r="R9" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L9" t="s">
+      <c r="S9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="2">
+      <c r="T9" s="8">
         <v>45247</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AM9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AN9" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AO9" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AP9" s="8">
         <v>45241</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AQ9" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AR9" s="8">
         <v>45243</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AS9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AT9" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.77326968973747001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.60911270983213395</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.72076372315035797</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <v>44533.466666666667</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="P10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J10" t="s">
+      <c r="Q10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K10" t="s">
+      <c r="R10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L10" t="s">
+      <c r="S10" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M10" s="2">
+      <c r="T10" s="8">
         <v>44533</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AM10" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AN10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AO10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AP10" s="8">
         <v>44525</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AR10" s="8">
         <v>44529</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AS10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AT10" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.79475982532751099</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.66960352422907399</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.75109170305676798</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <v>45058.261805555558</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="P11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="Q11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K11" t="s">
+      <c r="R11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L11" t="s">
+      <c r="S11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="2">
+      <c r="T11" s="8">
         <v>45058</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AG11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AH11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AI11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AK11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AL11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AM11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AN11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AO11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AP11" s="8">
         <v>45055</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AS11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AT11" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="AM16" s="3"/>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="AT16" s="2"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="AM17" s="3"/>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="AM18" s="3"/>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="AT18" s="2"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="AM19" s="3"/>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="AT19" s="2"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="AM20" s="3"/>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="AT20" s="2"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="AM21" s="3"/>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="AT21" s="2"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="AM22" s="3"/>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="AT22" s="2"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="AM23" s="3"/>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="AM24" s="3"/>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="AM25" s="3"/>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="AT25" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM25" xr:uid="{EA7A2767-089E-46D2-AB7F-7D5306D26559}"/>
-  <sortState ref="A2:AN11">
+  <autoFilter ref="A1:AT25" xr:uid="{EA7A2767-089E-46D2-AB7F-7D5306D26559}"/>
+  <sortState ref="A2:AU11">
     <sortCondition ref="D2:D11"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SURG_10input.xlsx
+++ b/SURG_10input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\122156\Documents\GitHub\weekly_medical_records_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694D9C7-202C-4148-AE59-9B0BF8C10FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982DE193-7125-462E-805D-D0C69CB71B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>NOTE_CONTENT</t>
-  </si>
-  <si>
-    <t>OPNOTEVALUETEXT</t>
   </si>
   <si>
     <t>OPERATIONDATE</t>
@@ -5525,6 +5522,10 @@
   <si>
     <t>Left frontal anaplastic astrocytoma, s/p left frontal craniotomy for gross total resection in 2010, with left frontal lesion suspect for recurrent tumor or radiation necrosis</t>
   </si>
+  <si>
+    <t>OPNOTEVALUETEXT_y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5913,8 +5914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5934,7 +5935,9 @@
     <col min="21" max="21" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9.140625" style="5"/>
     <col min="26" max="26" width="43.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="41" width="9.140625" style="5"/>
+    <col min="27" max="39" width="9.140625" style="5"/>
+    <col min="40" max="40" width="18.5703125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="5"/>
     <col min="42" max="42" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="9.140625" style="5"/>
     <col min="45" max="45" width="15.7109375" style="5" customWidth="1"/>
@@ -5947,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -5965,25 +5968,25 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
@@ -6064,27 +6067,27 @@
         <v>29</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>0.14399999999999999</v>
@@ -6099,52 +6102,52 @@
         <v>44645.472222222219</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="T2" s="7">
         <v>44645</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="7">
         <v>44639.031944444447</v>
@@ -6162,29 +6165,29 @@
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="7">
         <v>44620</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2">
         <v>0.13471502590673501</v>
@@ -6199,114 +6202,114 @@
         <v>44421.603472222218</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" t="s">
         <v>232</v>
-      </c>
-      <c r="L3" t="s">
-        <v>233</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="T3" s="8">
         <v>44421</v>
       </c>
       <c r="V3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="Z3" s="8">
         <v>44418.634722222218</v>
       </c>
       <c r="AA3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="AR3" s="8">
         <v>44406</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>0.13541666666666599</v>
@@ -6321,60 +6324,60 @@
         <v>44292.433333333327</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="T4" s="8">
         <v>44292</v>
       </c>
       <c r="V4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="Z4" s="8">
         <v>44291.573611111111</v>
       </c>
       <c r="AM4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="AR4" s="8">
         <v>44279</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>0.43846153846153801</v>
@@ -6389,87 +6392,87 @@
         <v>44708.660416666673</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
         <v>228</v>
-      </c>
-      <c r="K5" t="s">
-        <v>229</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="S5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T5" s="8">
         <v>44708</v>
       </c>
       <c r="U5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="Z5" s="8">
         <v>44702.491666666669</v>
       </c>
       <c r="AM5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AN5" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="AO5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP5" s="8">
         <v>44695</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR5" s="8">
         <v>44698</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2">
         <v>0.35384615384615298</v>
@@ -6484,74 +6487,74 @@
         <v>45065.411805555559</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="P6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="T6" s="8">
         <v>45065</v>
       </c>
       <c r="V6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="X6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="Z6" s="8">
         <v>45064.420138888891</v>
       </c>
       <c r="AM6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="AR6" s="8">
         <v>45064</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
         <v>0.37662337662337603</v>
@@ -6566,108 +6569,108 @@
         <v>45107.365277777782</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" t="s">
-        <v>223</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7"/>
       <c r="P7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="T7" s="8">
         <v>45107</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="X7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="Z7" s="8">
         <v>45105.679861111108</v>
       </c>
       <c r="AA7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AH7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AK7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AJ7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AL7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AM7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AN7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AO7" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="AP7" s="8">
         <v>45104</v>
       </c>
       <c r="AS7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>0.50896057347670198</v>
@@ -6682,51 +6685,51 @@
         <v>44715.551388888889</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="T8" s="8">
         <v>44715</v>
       </c>
       <c r="AM8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="AR8" s="8">
         <v>44694</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2">
         <v>0.72025723472668801</v>
@@ -6741,65 +6744,65 @@
         <v>45247.447916666657</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="P9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="T9" s="8">
         <v>45247</v>
       </c>
       <c r="AM9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AO9" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="AO9" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="AP9" s="8">
         <v>45241</v>
       </c>
       <c r="AQ9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR9" s="8">
         <v>45243</v>
       </c>
       <c r="AS9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2">
         <v>0.77326968973747001</v>
@@ -6814,65 +6817,65 @@
         <v>44533.466666666667</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="P10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="T10" s="8">
         <v>44533</v>
       </c>
       <c r="AM10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN10" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AN10" s="5" t="s">
+      <c r="AO10" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="AP10" s="8">
         <v>44525</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR10" s="8">
         <v>44529</v>
       </c>
       <c r="AS10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>0.79475982532751099</v>
@@ -6887,72 +6890,72 @@
         <v>45058.261805555558</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="P11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="T11" s="8">
         <v>45058</v>
       </c>
       <c r="AG11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AI11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="5" t="s">
+      <c r="AK11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AL11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AM11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AN11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AO11" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="AO11" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AP11" s="8">
         <v>45055</v>
       </c>
       <c r="AS11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
